--- a/wksp_ce/res/salas.xlsx
+++ b/wksp_ce/res/salas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicea\PycharmProjects\Protocol_Workshop\wksp_ce\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C477AAF3-BF04-40A6-B7F3-4F48988F202E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8B1B7A-FB7C-4801-9189-9C766F47A464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="2" xr2:uid="{60CEC630-20DA-48BA-871C-1CBBDEAC003E}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="14916" windowHeight="8880" tabRatio="1000" xr2:uid="{60CEC630-20DA-48BA-871C-1CBBDEAC003E}"/>
   </bookViews>
   <sheets>
     <sheet name="sjd lum" sheetId="28" r:id="rId1"/>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7C99EA-1532-458B-A73F-A05C44DC8245}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -608,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.4">
@@ -923,7 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE9B7F-0D62-4F04-B8ED-93D791A8B2CE}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1109,7 +1109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BD69D4-8B21-48FA-909B-F5200A12148C}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
